--- a/data/tabular/fastest20_qc_table.xlsx
+++ b/data/tabular/fastest20_qc_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6270a8f4b8f62cae/mcook/earth-lab/fastest-fires/data/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{754C931E-1F23-5B44-875F-17772C19212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:40009_{754C931E-1F23-5B44-875F-17772C19212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31B9D57-AAFB-FB49-A1D1-59C079795EE2}"/>
   <bookViews>
-    <workbookView xWindow="30680" yWindow="-1460" windowWidth="38400" windowHeight="21100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fastest20_qc_table" sheetId="1" r:id="rId1"/>
-    <sheet name="Cleaned" sheetId="2" r:id="rId2"/>
+    <sheet name="Fastest 20" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1." sheetId="2" r:id="rId2"/>
+    <sheet name="V2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="414">
   <si>
     <t>INCIDENT_ID</t>
   </si>
@@ -1212,33 +1213,9 @@
     <t>Incident Name</t>
   </si>
   <si>
-    <t>NW OKLAHOMA COMPLEX</t>
-  </si>
-  <si>
-    <t>PERRYTON</t>
-  </si>
-  <si>
-    <t>ANDERSON CREEK</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>BUZZARD COMPLEX</t>
-  </si>
-  <si>
-    <t>RHEA</t>
-  </si>
-  <si>
-    <t>NORTH COMPLEX</t>
-  </si>
-  <si>
     <t>OK, KS</t>
   </si>
   <si>
-    <t>WITCH-POOMACHA</t>
-  </si>
-  <si>
     <t>Fire Size (ha)</t>
   </si>
   <si>
@@ -1276,15 +1253,69 @@
   </si>
   <si>
     <t>Properties Exposed (4km)</t>
+  </si>
+  <si>
+    <t>Long Draw</t>
+  </si>
+  <si>
+    <t>Cold Springs Complex</t>
+  </si>
+  <si>
+    <t>Anderson Creek</t>
+  </si>
+  <si>
+    <t>Murphy Complex</t>
+  </si>
+  <si>
+    <t>East Amarillo Complex</t>
+  </si>
+  <si>
+    <t>Milford Flat</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>August Complex</t>
+  </si>
+  <si>
+    <t>Kinyon Road</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Cedar</t>
+  </si>
+  <si>
+    <t>Cooper Mtn. Ranch</t>
+  </si>
+  <si>
+    <t>LNU Lightning Complex</t>
+  </si>
+  <si>
+    <t>Witch-Poomacha</t>
+  </si>
+  <si>
+    <t>Dominant Vegetation</t>
+  </si>
+  <si>
+    <t>Grasslands</t>
+  </si>
+  <si>
+    <t>Evergreen Needleleaf Forests</t>
+  </si>
+  <si>
+    <t>Closed Shrublands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1422,19 +1453,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1630,7 +1659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1887,6 +1916,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1932,7 +2127,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1940,13 +2135,108 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1955,120 +2245,129 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2425,7 +2724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6711,825 +7010,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9" style="65" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="64" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="67" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="68" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="65" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="65" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="2" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="2" customFormat="1" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="73" t="s">
         <v>395</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>400</v>
+      <c r="J2" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:13" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="14">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="E3" s="52">
         <v>315368.56231199997</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="52">
         <v>214207.89008299899</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="48">
         <v>16</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="60">
         <v>3200000</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="55">
         <v>1647</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="58">
         <v>151</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="52">
         <v>2</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="52">
         <v>954.61666666666599</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>252</v>
+      <c r="M3" s="77" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="47">
         <v>2012</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="50">
         <v>225664.24480799999</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="50">
         <v>129911.42907899999</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="47">
         <v>14</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="61">
         <v>4360000</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="54">
         <v>2</v>
       </c>
-      <c r="J4" s="24">
-        <v>0</v>
-      </c>
-      <c r="K4" s="25">
+      <c r="J4" s="57">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
         <v>49</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="50">
         <v>4237</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>86</v>
+      <c r="M4" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="47">
         <v>2020</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="50">
         <v>218968.71493799999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="50">
         <v>102198.994356</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="47">
         <v>33</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="61">
         <v>11459351</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="54">
         <v>4907</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="57">
         <v>288</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="50">
         <v>34</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="50">
         <v>4326.9376984126802</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>402</v>
+      <c r="M5" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="47">
         <v>2017</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="50">
         <v>128753.279016</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="50">
         <v>100911.042317</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="47">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="H6" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="54">
         <v>97</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="57">
         <v>11</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="50">
         <v>3</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="50">
         <v>235</v>
       </c>
-      <c r="M6" s="26" t="s">
-        <v>252</v>
+      <c r="M6" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="B7" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="47">
         <v>2016</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="D7" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="50">
         <v>148819.22964000001</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="50">
         <v>81420.034781399998</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="47">
         <v>19</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="61">
         <v>1750000</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="54">
         <v>1098</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="57">
         <v>54</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="50">
         <v>20</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="50">
         <v>1182.74999999999</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>252</v>
+      <c r="M7" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="B8" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="47">
         <v>2007</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="50">
         <v>263861.74697599997</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="50">
         <v>70150.454433299994</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="47">
         <v>30</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="61">
         <v>13000000</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="54">
         <v>21</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="57">
         <v>3</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="50">
         <v>56</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="50">
         <v>10443</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>86</v>
+      <c r="M8" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="47">
         <v>2006</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="50">
         <v>367149.35006999999</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="51">
         <v>60769.870410199997</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="47">
         <v>23</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I9" s="45">
+      <c r="H9" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="54">
         <f>3386+1435</f>
         <v>4821</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="57">
         <v>89</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="50">
         <v>6</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="50">
         <v>702</v>
       </c>
-      <c r="M9" s="26" t="s">
-        <v>252</v>
+      <c r="M9" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="47">
         <v>2018</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="50">
         <v>176268.67633399999</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="50">
         <v>59245.793829800001</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="47">
         <v>20</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="61">
         <v>8500000</v>
       </c>
-      <c r="I10" s="45">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>1</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="I10" s="54">
+        <v>0</v>
+      </c>
+      <c r="J10" s="57">
+        <v>1</v>
+      </c>
+      <c r="K10" s="50">
         <v>96.5</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="50">
         <v>2332.1722222222202</v>
       </c>
-      <c r="M10" s="26" t="s">
-        <v>233</v>
+      <c r="M10" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="47">
         <v>2007</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="50">
         <v>146922.06167200001</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="50">
         <v>58258.363932699998</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="47">
         <v>16</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="61">
         <v>5050000</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="54">
         <v>112</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="57">
         <v>2</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="50">
         <v>25</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="50">
         <v>4421</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>233</v>
+      <c r="M11" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B12" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="47">
         <v>2008</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="50">
         <v>88851.239415999997</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="50">
         <v>57979.307657400001</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="47">
         <v>5</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="I12" s="45">
-        <v>1</v>
-      </c>
-      <c r="J12" s="24">
-        <v>0</v>
-      </c>
-      <c r="K12" s="25">
+      <c r="H12" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="54">
+        <v>1</v>
+      </c>
+      <c r="J12" s="57">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
         <v>8</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="50">
         <v>56</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>269</v>
+      <c r="M12" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" s="21">
+      <c r="B13" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="47">
         <v>2014</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="50">
         <v>160153.27044200001</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="50">
         <v>50251.595418699901</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="47">
         <v>14</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="61">
         <v>11062411</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="54">
         <v>42</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="57">
         <v>4</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="50">
         <v>96</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="50">
         <v>5264.6658730158697</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>86</v>
+      <c r="M13" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="21">
+    <row r="14" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="47">
         <v>2020</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="50">
         <v>417898.18852799997</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="50">
         <v>49629.085266099901</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="47">
         <v>68</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="61">
         <v>115511217.89</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="54">
         <v>196</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="57">
         <v>446</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="50">
         <v>1153.25</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="50">
         <v>63813.662481962499</v>
       </c>
-      <c r="M14" s="26" t="s">
-        <v>171</v>
+      <c r="M14" s="79" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B15" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="47">
         <v>2012</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="50">
         <v>85337.755563999992</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="50">
         <v>47461.032665899998</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="47">
         <v>12</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="61">
         <v>1625000</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="54">
         <v>57</v>
       </c>
-      <c r="J15" s="24">
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
+      <c r="J15" s="57">
+        <v>0</v>
+      </c>
+      <c r="K15" s="50">
         <v>18</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="50">
         <v>1361</v>
       </c>
-      <c r="M15" s="26" t="s">
-        <v>86</v>
+      <c r="M15" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="21">
+      <c r="B16" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="47">
         <v>2015</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="50">
         <v>115481.601646</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="50">
         <v>46473.602768700002</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="47">
         <v>9</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="61">
         <v>6250000</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="54">
         <v>662</v>
       </c>
-      <c r="J16" s="24">
-        <v>1</v>
-      </c>
-      <c r="K16" s="25">
-        <v>69</v>
-      </c>
-      <c r="L16" s="25">
+      <c r="J16" s="57">
+        <v>1</v>
+      </c>
+      <c r="K16" s="50">
+        <v>69</v>
+      </c>
+      <c r="L16" s="50">
         <v>1706.19166666666</v>
       </c>
-      <c r="M16" s="26" t="s">
-        <v>86</v>
+      <c r="M16" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" s="21">
+      <c r="B17" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="47">
         <v>2018</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="50">
         <v>115819.514456</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="50">
         <v>44498.742974399996</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="47">
         <v>26</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="61">
         <v>3707498</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="54">
         <v>1669</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="57">
         <v>32</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="50">
         <v>62</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="50">
         <v>940.74047619047599</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>338</v>
+      <c r="M17" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="20" t="s">
-        <v>388</v>
-      </c>
-      <c r="C18" s="21">
+    <row r="18" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="47">
         <v>2020</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="50">
         <v>129068.52941</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="50">
         <v>42438.019710699999</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="47">
         <v>52</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="61">
         <v>112711950</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="54">
         <v>4607</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="57">
         <v>2342</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="50">
         <v>802.33333333333303</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="50">
         <v>63228.5557303807</v>
       </c>
-      <c r="M18" s="26" t="s">
-        <v>187</v>
+      <c r="M18" s="79" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="29">
+      <c r="B19" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="48">
         <v>2003</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="52">
         <v>110578.830756</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="52">
         <v>41407.6580789</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="48">
         <v>18</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="60">
         <v>32616213</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="55">
         <v>132444</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="58">
         <v>2820</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="52">
         <v>626</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="52">
         <v>74404</v>
       </c>
-      <c r="M19" s="34" t="s">
-        <v>136</v>
+      <c r="M19" s="77" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="21">
+      <c r="B20" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="47">
         <v>2011</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="50">
         <v>65812.060750000004</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="50">
         <v>39969.444967800002</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="47">
         <v>13</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="61">
         <v>1194159</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="54">
         <v>740</v>
       </c>
-      <c r="J20" s="24">
-        <v>0</v>
-      </c>
-      <c r="K20" s="25">
+      <c r="J20" s="57">
+        <v>0</v>
+      </c>
+      <c r="K20" s="50">
         <v>8</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="50">
         <v>854</v>
       </c>
-      <c r="M20" s="26" t="s">
-        <v>252</v>
+      <c r="M20" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="21">
+      <c r="B21" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="47">
         <v>2020</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="50">
         <v>146990.04892</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="50">
         <v>39132.276141900002</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="47">
         <v>22</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="61">
         <v>94646381</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="54">
         <v>34344</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="57">
         <v>1479</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="50">
         <v>353.5</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="50">
         <v>36600.938594738502</v>
       </c>
-      <c r="M21" s="26" t="s">
-        <v>136</v>
+      <c r="M21" s="79" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="49">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="53">
+        <v>80123.781139999992</v>
+      </c>
+      <c r="F22" s="53">
+        <v>38638.561193399997</v>
+      </c>
+      <c r="G22" s="49">
+        <v>19</v>
+      </c>
+      <c r="H22" s="63">
+        <v>18000000</v>
+      </c>
+      <c r="I22" s="56">
+        <v>76871</v>
+      </c>
+      <c r="J22" s="59">
+        <v>1680</v>
+      </c>
+      <c r="K22" s="53">
+        <v>2</v>
+      </c>
+      <c r="L22" s="53">
+        <v>46819</v>
+      </c>
+      <c r="M22" s="81" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFABA0C-4B0F-344D-B826-4874A774611E}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="36">
+      <c r="K1" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="15">
+        <v>315368.56231199997</v>
+      </c>
+      <c r="E2" s="19">
+        <v>214207.89008299899</v>
+      </c>
+      <c r="F2" s="14">
+        <v>16</v>
+      </c>
+      <c r="G2" s="16">
+        <v>3200000</v>
+      </c>
+      <c r="H2" s="17">
+        <v>1647</v>
+      </c>
+      <c r="I2" s="18">
+        <v>151</v>
+      </c>
+      <c r="J2" s="19">
+        <v>2</v>
+      </c>
+      <c r="K2" s="19">
+        <v>954.61666666666599</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2012</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="23">
+        <v>225664.24480799999</v>
+      </c>
+      <c r="E3" s="27">
+        <v>129911.42907899999</v>
+      </c>
+      <c r="F3" s="22">
+        <v>14</v>
+      </c>
+      <c r="G3" s="24">
+        <v>4360000</v>
+      </c>
+      <c r="H3" s="25">
+        <v>2</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>49</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4237</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="23">
+        <v>218968.71493799999</v>
+      </c>
+      <c r="E4" s="27">
+        <v>102198.994356</v>
+      </c>
+      <c r="F4" s="22">
+        <v>33</v>
+      </c>
+      <c r="G4" s="24">
+        <v>11459351</v>
+      </c>
+      <c r="H4" s="25">
+        <v>4907</v>
+      </c>
+      <c r="I4" s="26">
+        <v>288</v>
+      </c>
+      <c r="J4" s="27">
+        <v>34</v>
+      </c>
+      <c r="K4" s="27">
+        <v>4326.9376984126802</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="23">
+        <v>128753.279016</v>
+      </c>
+      <c r="E5" s="27">
+        <v>100911.042317</v>
+      </c>
+      <c r="F5" s="22">
+        <v>14</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="H5" s="25">
+        <v>97</v>
+      </c>
+      <c r="I5" s="26">
+        <v>11</v>
+      </c>
+      <c r="J5" s="27">
+        <v>3</v>
+      </c>
+      <c r="K5" s="27">
+        <v>235</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="23">
+        <v>148819.22964000001</v>
+      </c>
+      <c r="E6" s="27">
+        <v>81420.034781399998</v>
+      </c>
+      <c r="F6" s="22">
+        <v>19</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1750000</v>
+      </c>
+      <c r="H6" s="25">
+        <v>1098</v>
+      </c>
+      <c r="I6" s="26">
+        <v>54</v>
+      </c>
+      <c r="J6" s="27">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1182.74999999999</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="22">
         <v>2007</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="23">
+        <v>263861.74697599997</v>
+      </c>
+      <c r="E7" s="27">
+        <v>70150.454433299994</v>
+      </c>
+      <c r="F7" s="22">
+        <v>30</v>
+      </c>
+      <c r="G7" s="24">
+        <v>13000000</v>
+      </c>
+      <c r="H7" s="25">
+        <v>21</v>
+      </c>
+      <c r="I7" s="26">
+        <v>3</v>
+      </c>
+      <c r="J7" s="27">
+        <v>56</v>
+      </c>
+      <c r="K7" s="27">
+        <v>10443</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="23">
+        <v>367149.35006999999</v>
+      </c>
+      <c r="E8" s="46">
+        <v>60769.870410199997</v>
+      </c>
+      <c r="F8" s="22">
+        <v>23</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="H8" s="25">
+        <f>3386+1435</f>
+        <v>4821</v>
+      </c>
+      <c r="I8" s="26">
+        <v>89</v>
+      </c>
+      <c r="J8" s="27">
+        <v>6</v>
+      </c>
+      <c r="K8" s="27">
+        <v>702</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="23">
+        <v>176268.67633399999</v>
+      </c>
+      <c r="E9" s="27">
+        <v>59245.793829800001</v>
+      </c>
+      <c r="F9" s="22">
+        <v>20</v>
+      </c>
+      <c r="G9" s="24">
+        <v>8500000</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="27">
+        <v>96.5</v>
+      </c>
+      <c r="K9" s="27">
+        <v>2332.1722222222202</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2007</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="23">
+        <v>146922.06167200001</v>
+      </c>
+      <c r="E10" s="27">
+        <v>58258.363932699998</v>
+      </c>
+      <c r="F10" s="22">
+        <v>16</v>
+      </c>
+      <c r="G10" s="24">
+        <v>5050000</v>
+      </c>
+      <c r="H10" s="25">
+        <v>112</v>
+      </c>
+      <c r="I10" s="26">
+        <v>2</v>
+      </c>
+      <c r="J10" s="27">
+        <v>25</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4421</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2008</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="23">
+        <v>88851.239415999997</v>
+      </c>
+      <c r="E11" s="27">
+        <v>57979.307657400001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>5</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>8</v>
+      </c>
+      <c r="K11" s="27">
+        <v>56</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2014</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="23">
+        <v>160153.27044200001</v>
+      </c>
+      <c r="E12" s="27">
+        <v>50251.595418699901</v>
+      </c>
+      <c r="F12" s="22">
+        <v>14</v>
+      </c>
+      <c r="G12" s="24">
+        <v>11062411</v>
+      </c>
+      <c r="H12" s="25">
+        <v>42</v>
+      </c>
+      <c r="I12" s="26">
+        <v>4</v>
+      </c>
+      <c r="J12" s="27">
+        <v>96</v>
+      </c>
+      <c r="K12" s="27">
+        <v>5264.6658730158697</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="37">
+      <c r="D13" s="23">
+        <v>417898.18852799997</v>
+      </c>
+      <c r="E13" s="27">
+        <v>49629.085266099901</v>
+      </c>
+      <c r="F13" s="22">
+        <v>68</v>
+      </c>
+      <c r="G13" s="24">
+        <v>115511217.89</v>
+      </c>
+      <c r="H13" s="25">
+        <v>196</v>
+      </c>
+      <c r="I13" s="26">
+        <v>446</v>
+      </c>
+      <c r="J13" s="27">
+        <v>1153.25</v>
+      </c>
+      <c r="K13" s="27">
+        <v>63813.662481962499</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2012</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="23">
+        <v>85337.755563999992</v>
+      </c>
+      <c r="E14" s="27">
+        <v>47461.032665899998</v>
+      </c>
+      <c r="F14" s="22">
+        <v>12</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1625000</v>
+      </c>
+      <c r="H14" s="25">
+        <v>57</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>18</v>
+      </c>
+      <c r="K14" s="27">
+        <v>1361</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="23">
+        <v>115481.601646</v>
+      </c>
+      <c r="E15" s="27">
+        <v>46473.602768700002</v>
+      </c>
+      <c r="F15" s="22">
+        <v>9</v>
+      </c>
+      <c r="G15" s="24">
+        <v>6250000</v>
+      </c>
+      <c r="H15" s="25">
+        <v>662</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
+      <c r="J15" s="27">
+        <v>69</v>
+      </c>
+      <c r="K15" s="27">
+        <v>1706.19166666666</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="22">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="23">
+        <v>115819.514456</v>
+      </c>
+      <c r="E16" s="27">
+        <v>44498.742974399996</v>
+      </c>
+      <c r="F16" s="22">
+        <v>26</v>
+      </c>
+      <c r="G16" s="24">
+        <v>3707498</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1669</v>
+      </c>
+      <c r="I16" s="26">
+        <v>32</v>
+      </c>
+      <c r="J16" s="27">
+        <v>62</v>
+      </c>
+      <c r="K16" s="27">
+        <v>940.74047619047599</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="23">
+        <v>129068.52941</v>
+      </c>
+      <c r="E17" s="27">
+        <v>42438.019710699999</v>
+      </c>
+      <c r="F17" s="22">
+        <v>52</v>
+      </c>
+      <c r="G17" s="24">
+        <v>112711950</v>
+      </c>
+      <c r="H17" s="25">
+        <v>4607</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2342</v>
+      </c>
+      <c r="J17" s="27">
+        <v>802.33333333333303</v>
+      </c>
+      <c r="K17" s="27">
+        <v>63228.5557303807</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2003</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="32">
+        <v>110578.830756</v>
+      </c>
+      <c r="E18" s="36">
+        <v>41407.6580789</v>
+      </c>
+      <c r="F18" s="31">
+        <v>18</v>
+      </c>
+      <c r="G18" s="33">
+        <v>32616213</v>
+      </c>
+      <c r="H18" s="34">
+        <v>132444</v>
+      </c>
+      <c r="I18" s="35">
+        <v>2820</v>
+      </c>
+      <c r="J18" s="36">
+        <v>626</v>
+      </c>
+      <c r="K18" s="36">
+        <v>74404</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="22">
+        <v>2011</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="23">
+        <v>65812.060750000004</v>
+      </c>
+      <c r="E19" s="27">
+        <v>39969.444967800002</v>
+      </c>
+      <c r="F19" s="22">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1194159</v>
+      </c>
+      <c r="H19" s="25">
+        <v>740</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27">
+        <v>8</v>
+      </c>
+      <c r="K19" s="27">
+        <v>854</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B20" s="22">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="23">
+        <v>146990.04892</v>
+      </c>
+      <c r="E20" s="27">
+        <v>39132.276141900002</v>
+      </c>
+      <c r="F20" s="22">
+        <v>22</v>
+      </c>
+      <c r="G20" s="24">
+        <v>94646381</v>
+      </c>
+      <c r="H20" s="25">
+        <v>34344</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1479</v>
+      </c>
+      <c r="J20" s="27">
+        <v>353.5</v>
+      </c>
+      <c r="K20" s="27">
+        <v>36600.938594738502</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="39">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="40">
         <v>80123.781139999992</v>
       </c>
-      <c r="F22" s="37">
+      <c r="E21" s="44">
         <v>38638.561193399997</v>
       </c>
-      <c r="G22" s="36">
+      <c r="F21" s="39">
         <v>19</v>
       </c>
-      <c r="H22" s="38">
+      <c r="G21" s="41">
         <v>18000000</v>
       </c>
-      <c r="I22" s="47">
+      <c r="H21" s="42">
         <v>76871</v>
       </c>
-      <c r="J22" s="39">
+      <c r="I21" s="43">
         <v>1680</v>
       </c>
-      <c r="K22" s="40">
+      <c r="J21" s="44">
         <v>2</v>
       </c>
-      <c r="L22" s="40">
+      <c r="K21" s="44">
         <v>46819</v>
       </c>
-      <c r="M22" s="41" t="s">
+      <c r="L21" s="45" t="s">
         <v>136</v>
       </c>
     </row>

--- a/data/tabular/fastest20_qc_table.xlsx
+++ b/data/tabular/fastest20_qc_table.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6270a8f4b8f62cae/mcook/earth-lab/fastest-fires/data/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:40009_{754C931E-1F23-5B44-875F-17772C19212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31B9D57-AAFB-FB49-A1D1-59C079795EE2}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:40009_{754C931E-1F23-5B44-875F-17772C19212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E36FBE-28E7-5940-8EC9-964A264EDABA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fastest 20" sheetId="1" r:id="rId1"/>
     <sheet name="Table 1." sheetId="2" r:id="rId2"/>
-    <sheet name="V2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="412">
   <si>
     <t>INCIDENT_ID</t>
   </si>
@@ -1243,13 +1242,7 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Ecoregion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max Fire Growth (ha/day) </t>
-  </si>
-  <si>
-    <t>Columbia Plateau</t>
   </si>
   <si>
     <t>Properties Exposed (4km)</t>
@@ -1659,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1771,148 +1764,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2127,7 +1978,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2135,12 +1986,71 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,21 +2077,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,184 +2086,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="34" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2426,6 +2169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7011,1657 +6758,904 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:M22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection sqref="A1:N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9" style="65" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="65" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="64" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="66" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="67" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="68" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="65" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="21" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" s="2" customFormat="1" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>387</v>
-      </c>
-      <c r="I2" s="73" t="s">
+      <c r="J2" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:14" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38"/>
+      <c r="B3" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="8">
+        <v>315368.56231199997</v>
+      </c>
+      <c r="F3" s="8">
+        <v>214207.89008299899</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16</v>
+      </c>
+      <c r="H3" s="16">
+        <v>3200000</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1647</v>
+      </c>
+      <c r="J3" s="14">
+        <v>151</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>954.61666666666599</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="N3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="38"/>
+      <c r="B4" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="6">
+        <v>225664.24480799999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>129911.42907899999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17">
+        <v>4360000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>49</v>
+      </c>
+      <c r="L4" s="6">
+        <v>4237</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="J2" s="74" t="s">
-        <v>388</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="M2" s="75" t="s">
-        <v>410</v>
-      </c>
+      <c r="C5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="6">
+        <v>218968.71493799999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>102198.994356</v>
+      </c>
+      <c r="G5" s="3">
+        <v>33</v>
+      </c>
+      <c r="H5" s="17">
+        <v>11459351</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4907</v>
+      </c>
+      <c r="J5" s="13">
+        <v>288</v>
+      </c>
+      <c r="K5" s="6">
+        <v>34</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4326.9376984126802</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N5" s="38"/>
     </row>
-    <row r="3" spans="2:13" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="76" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="48">
+    <row r="6" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="3">
         <v>2017</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="6">
+        <v>128753.279016</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100911.042317</v>
+      </c>
+      <c r="G6" s="3">
+        <v>14</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="10">
+        <v>97</v>
+      </c>
+      <c r="J6" s="13">
+        <v>11</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>235</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="52">
-        <v>315368.56231199997</v>
-      </c>
-      <c r="F3" s="52">
-        <v>214207.89008299899</v>
-      </c>
-      <c r="G3" s="48">
-        <v>16</v>
-      </c>
-      <c r="H3" s="60">
-        <v>3200000</v>
-      </c>
-      <c r="I3" s="55">
-        <v>1647</v>
-      </c>
-      <c r="J3" s="58">
-        <v>151</v>
-      </c>
-      <c r="K3" s="52">
-        <v>2</v>
-      </c>
-      <c r="L3" s="52">
-        <v>954.61666666666599</v>
-      </c>
-      <c r="M3" s="77" t="s">
-        <v>411</v>
-      </c>
+      <c r="E7" s="6">
+        <v>148819.22964000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>81420.034781399998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>19</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1750000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1098</v>
+      </c>
+      <c r="J7" s="13">
+        <v>54</v>
+      </c>
+      <c r="K7" s="6">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1182.74999999999</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N7" s="38"/>
     </row>
-    <row r="4" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="C4" s="47">
-        <v>2012</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="50">
-        <v>225664.24480799999</v>
-      </c>
-      <c r="F4" s="50">
-        <v>129911.42907899999</v>
-      </c>
-      <c r="G4" s="47">
-        <v>14</v>
-      </c>
-      <c r="H4" s="61">
-        <v>4360000</v>
-      </c>
-      <c r="I4" s="54">
-        <v>2</v>
-      </c>
-      <c r="J4" s="57">
-        <v>0</v>
-      </c>
-      <c r="K4" s="50">
-        <v>49</v>
-      </c>
-      <c r="L4" s="50">
-        <v>4237</v>
-      </c>
-      <c r="M4" s="79" t="s">
-        <v>411</v>
-      </c>
+    <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6">
+        <v>263861.74697599997</v>
+      </c>
+      <c r="F8" s="6">
+        <v>70150.454433299994</v>
+      </c>
+      <c r="G8" s="3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="17">
+        <v>13000000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>21</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3</v>
+      </c>
+      <c r="K8" s="6">
+        <v>56</v>
+      </c>
+      <c r="L8" s="6">
+        <v>10443</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N8" s="38"/>
     </row>
-    <row r="5" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="47">
-        <v>2020</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="50">
-        <v>218968.71493799999</v>
-      </c>
-      <c r="F5" s="50">
-        <v>102198.994356</v>
-      </c>
-      <c r="G5" s="47">
-        <v>33</v>
-      </c>
-      <c r="H5" s="61">
-        <v>11459351</v>
-      </c>
-      <c r="I5" s="54">
-        <v>4907</v>
-      </c>
-      <c r="J5" s="57">
-        <v>288</v>
-      </c>
-      <c r="K5" s="50">
-        <v>34</v>
-      </c>
-      <c r="L5" s="50">
-        <v>4326.9376984126802</v>
-      </c>
-      <c r="M5" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="47">
-        <v>2017</v>
-      </c>
-      <c r="D6" s="47" t="s">
+    <row r="9" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
+      <c r="B9" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2006</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="50">
-        <v>128753.279016</v>
-      </c>
-      <c r="F6" s="50">
-        <v>100911.042317</v>
-      </c>
-      <c r="G6" s="47">
-        <v>14</v>
-      </c>
-      <c r="H6" s="62" t="s">
+      <c r="E9" s="6">
+        <v>367149.35006999999</v>
+      </c>
+      <c r="F9" s="7">
+        <v>60769.870410199997</v>
+      </c>
+      <c r="G9" s="3">
+        <v>23</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="I6" s="54">
-        <v>97</v>
-      </c>
-      <c r="J6" s="57">
-        <v>11</v>
-      </c>
-      <c r="K6" s="50">
-        <v>3</v>
-      </c>
-      <c r="L6" s="50">
-        <v>235</v>
-      </c>
-      <c r="M6" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="47">
-        <v>2016</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="E7" s="50">
-        <v>148819.22964000001</v>
-      </c>
-      <c r="F7" s="50">
-        <v>81420.034781399998</v>
-      </c>
-      <c r="G7" s="47">
-        <v>19</v>
-      </c>
-      <c r="H7" s="61">
-        <v>1750000</v>
-      </c>
-      <c r="I7" s="54">
-        <v>1098</v>
-      </c>
-      <c r="J7" s="57">
-        <v>54</v>
-      </c>
-      <c r="K7" s="50">
-        <v>20</v>
-      </c>
-      <c r="L7" s="50">
-        <v>1182.74999999999</v>
-      </c>
-      <c r="M7" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="47">
-        <v>2007</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="50">
-        <v>263861.74697599997</v>
-      </c>
-      <c r="F8" s="50">
-        <v>70150.454433299994</v>
-      </c>
-      <c r="G8" s="47">
-        <v>30</v>
-      </c>
-      <c r="H8" s="61">
-        <v>13000000</v>
-      </c>
-      <c r="I8" s="54">
-        <v>21</v>
-      </c>
-      <c r="J8" s="57">
-        <v>3</v>
-      </c>
-      <c r="K8" s="50">
-        <v>56</v>
-      </c>
-      <c r="L8" s="50">
-        <v>10443</v>
-      </c>
-      <c r="M8" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="C9" s="47">
-        <v>2006</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="50">
-        <v>367149.35006999999</v>
-      </c>
-      <c r="F9" s="51">
-        <v>60769.870410199997</v>
-      </c>
-      <c r="G9" s="47">
-        <v>23</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="I9" s="54">
+      <c r="I9" s="10">
         <f>3386+1435</f>
         <v>4821</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="13">
         <v>89</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="6">
         <v>6</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="6">
         <v>702</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="6">
+        <v>176268.67633399999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>59245.793829800001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17">
+        <v>8500000</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>96.5</v>
+      </c>
+      <c r="L10" s="6">
+        <v>2332.1722222222202</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2007</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="6">
+        <v>146922.06167200001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>58258.363932699998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>16</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5050000</v>
+      </c>
+      <c r="I11" s="10">
+        <v>112</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>25</v>
+      </c>
+      <c r="L11" s="6">
+        <v>4421</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2008</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="6">
+        <v>88851.239415999997</v>
+      </c>
+      <c r="F12" s="6">
+        <v>57979.307657400001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>8</v>
+      </c>
+      <c r="L12" s="6">
+        <v>56</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="6">
+        <v>160153.27044200001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>50251.595418699901</v>
+      </c>
+      <c r="G13" s="3">
+        <v>14</v>
+      </c>
+      <c r="H13" s="17">
+        <v>11062411</v>
+      </c>
+      <c r="I13" s="10">
+        <v>42</v>
+      </c>
+      <c r="J13" s="13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="6">
+        <v>96</v>
+      </c>
+      <c r="L13" s="6">
+        <v>5264.6658730158697</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="6">
+        <v>417898.18852799997</v>
+      </c>
+      <c r="F14" s="6">
+        <v>49629.085266099901</v>
+      </c>
+      <c r="G14" s="3">
+        <v>68</v>
+      </c>
+      <c r="H14" s="17">
+        <v>115511217.89</v>
+      </c>
+      <c r="I14" s="10">
+        <v>196</v>
+      </c>
+      <c r="J14" s="13">
+        <v>446</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1153.25</v>
+      </c>
+      <c r="L14" s="6">
+        <v>63813.662481962499</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="6">
+        <v>85337.755563999992</v>
+      </c>
+      <c r="F15" s="6">
+        <v>47461.032665899998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1625000</v>
+      </c>
+      <c r="I15" s="10">
+        <v>57</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>18</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1361</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6">
+        <v>115481.601646</v>
+      </c>
+      <c r="F16" s="6">
+        <v>46473.602768700002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17">
+        <v>6250000</v>
+      </c>
+      <c r="I16" s="10">
+        <v>662</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>69</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1706.19166666666</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="6">
+        <v>115819.514456</v>
+      </c>
+      <c r="F17" s="6">
+        <v>44498.742974399996</v>
+      </c>
+      <c r="G17" s="3">
+        <v>26</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3707498</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1669</v>
+      </c>
+      <c r="J17" s="13">
+        <v>32</v>
+      </c>
+      <c r="K17" s="6">
+        <v>62</v>
+      </c>
+      <c r="L17" s="6">
+        <v>940.74047619047599</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
+      <c r="B18" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="6">
+        <v>129068.52941</v>
+      </c>
+      <c r="F18" s="6">
+        <v>42438.019710699999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>52</v>
+      </c>
+      <c r="H18" s="17">
+        <v>112711950</v>
+      </c>
+      <c r="I18" s="10">
+        <v>4607</v>
+      </c>
+      <c r="J18" s="13">
+        <v>2342</v>
+      </c>
+      <c r="K18" s="6">
+        <v>802.33333333333303</v>
+      </c>
+      <c r="L18" s="6">
+        <v>63228.5557303807</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
+      <c r="B19" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="8">
+        <v>110578.830756</v>
+      </c>
+      <c r="F19" s="8">
+        <v>41407.6580789</v>
+      </c>
+      <c r="G19" s="4">
+        <v>18</v>
+      </c>
+      <c r="H19" s="16">
+        <v>32616213</v>
+      </c>
+      <c r="I19" s="11">
+        <v>132444</v>
+      </c>
+      <c r="J19" s="14">
+        <v>2820</v>
+      </c>
+      <c r="K19" s="8">
+        <v>626</v>
+      </c>
+      <c r="L19" s="8">
+        <v>74404</v>
+      </c>
+      <c r="M19" s="33" t="s">
         <v>411</v>
       </c>
+      <c r="N19" s="38"/>
     </row>
-    <row r="10" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="78" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="47">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="50">
-        <v>176268.67633399999</v>
-      </c>
-      <c r="F10" s="50">
-        <v>59245.793829800001</v>
-      </c>
-      <c r="G10" s="47">
-        <v>20</v>
-      </c>
-      <c r="H10" s="61">
-        <v>8500000</v>
-      </c>
-      <c r="I10" s="54">
-        <v>0</v>
-      </c>
-      <c r="J10" s="57">
-        <v>1</v>
-      </c>
-      <c r="K10" s="50">
-        <v>96.5</v>
-      </c>
-      <c r="L10" s="50">
-        <v>2332.1722222222202</v>
-      </c>
-      <c r="M10" s="79" t="s">
+    <row r="20" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="6">
+        <v>65812.060750000004</v>
+      </c>
+      <c r="F20" s="6">
+        <v>39969.444967800002</v>
+      </c>
+      <c r="G20" s="3">
+        <v>13</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1194159</v>
+      </c>
+      <c r="I20" s="10">
+        <v>740</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>8</v>
+      </c>
+      <c r="L20" s="6">
+        <v>854</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="6">
+        <v>146990.04892</v>
+      </c>
+      <c r="F21" s="6">
+        <v>39132.276141900002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>22</v>
+      </c>
+      <c r="H21" s="17">
+        <v>94646381</v>
+      </c>
+      <c r="I21" s="10">
+        <v>34344</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1479</v>
+      </c>
+      <c r="K21" s="6">
+        <v>353.5</v>
+      </c>
+      <c r="L21" s="6">
+        <v>36600.938594738502</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2007</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="9">
+        <v>80123.781139999992</v>
+      </c>
+      <c r="F22" s="9">
+        <v>38638.561193399997</v>
+      </c>
+      <c r="G22" s="5">
+        <v>19</v>
+      </c>
+      <c r="H22" s="19">
+        <v>18000000</v>
+      </c>
+      <c r="I22" s="12">
+        <v>76871</v>
+      </c>
+      <c r="J22" s="15">
+        <v>1680</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2</v>
+      </c>
+      <c r="L22" s="9">
+        <v>46819</v>
+      </c>
+      <c r="M22" s="37" t="s">
         <v>411</v>
       </c>
+      <c r="N22" s="38"/>
     </row>
-    <row r="11" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="47">
-        <v>2007</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="50">
-        <v>146922.06167200001</v>
-      </c>
-      <c r="F11" s="50">
-        <v>58258.363932699998</v>
-      </c>
-      <c r="G11" s="47">
-        <v>16</v>
-      </c>
-      <c r="H11" s="61">
-        <v>5050000</v>
-      </c>
-      <c r="I11" s="54">
-        <v>112</v>
-      </c>
-      <c r="J11" s="57">
-        <v>2</v>
-      </c>
-      <c r="K11" s="50">
-        <v>25</v>
-      </c>
-      <c r="L11" s="50">
-        <v>4421</v>
-      </c>
-      <c r="M11" s="79" t="s">
-        <v>411</v>
-      </c>
+    <row r="23" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="47">
-        <v>2008</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="50">
-        <v>88851.239415999997</v>
-      </c>
-      <c r="F12" s="50">
-        <v>57979.307657400001</v>
-      </c>
-      <c r="G12" s="47">
-        <v>5</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="I12" s="54">
-        <v>1</v>
-      </c>
-      <c r="J12" s="57">
-        <v>0</v>
-      </c>
-      <c r="K12" s="50">
-        <v>8</v>
-      </c>
-      <c r="L12" s="50">
-        <v>56</v>
-      </c>
-      <c r="M12" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="47">
-        <v>2014</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="50">
-        <v>160153.27044200001</v>
-      </c>
-      <c r="F13" s="50">
-        <v>50251.595418699901</v>
-      </c>
-      <c r="G13" s="47">
-        <v>14</v>
-      </c>
-      <c r="H13" s="61">
-        <v>11062411</v>
-      </c>
-      <c r="I13" s="54">
-        <v>42</v>
-      </c>
-      <c r="J13" s="57">
-        <v>4</v>
-      </c>
-      <c r="K13" s="50">
-        <v>96</v>
-      </c>
-      <c r="L13" s="50">
-        <v>5264.6658730158697</v>
-      </c>
-      <c r="M13" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C14" s="47">
-        <v>2020</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="50">
-        <v>417898.18852799997</v>
-      </c>
-      <c r="F14" s="50">
-        <v>49629.085266099901</v>
-      </c>
-      <c r="G14" s="47">
-        <v>68</v>
-      </c>
-      <c r="H14" s="61">
-        <v>115511217.89</v>
-      </c>
-      <c r="I14" s="54">
-        <v>196</v>
-      </c>
-      <c r="J14" s="57">
-        <v>446</v>
-      </c>
-      <c r="K14" s="50">
-        <v>1153.25</v>
-      </c>
-      <c r="L14" s="50">
-        <v>63813.662481962499</v>
-      </c>
-      <c r="M14" s="79" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="47">
-        <v>2012</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="50">
-        <v>85337.755563999992</v>
-      </c>
-      <c r="F15" s="50">
-        <v>47461.032665899998</v>
-      </c>
-      <c r="G15" s="47">
-        <v>12</v>
-      </c>
-      <c r="H15" s="61">
-        <v>1625000</v>
-      </c>
-      <c r="I15" s="54">
-        <v>57</v>
-      </c>
-      <c r="J15" s="57">
-        <v>0</v>
-      </c>
-      <c r="K15" s="50">
-        <v>18</v>
-      </c>
-      <c r="L15" s="50">
-        <v>1361</v>
-      </c>
-      <c r="M15" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="47">
-        <v>2015</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="50">
-        <v>115481.601646</v>
-      </c>
-      <c r="F16" s="50">
-        <v>46473.602768700002</v>
-      </c>
-      <c r="G16" s="47">
-        <v>9</v>
-      </c>
-      <c r="H16" s="61">
-        <v>6250000</v>
-      </c>
-      <c r="I16" s="54">
-        <v>662</v>
-      </c>
-      <c r="J16" s="57">
-        <v>1</v>
-      </c>
-      <c r="K16" s="50">
-        <v>69</v>
-      </c>
-      <c r="L16" s="50">
-        <v>1706.19166666666</v>
-      </c>
-      <c r="M16" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="47">
-        <v>2018</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E17" s="50">
-        <v>115819.514456</v>
-      </c>
-      <c r="F17" s="50">
-        <v>44498.742974399996</v>
-      </c>
-      <c r="G17" s="47">
-        <v>26</v>
-      </c>
-      <c r="H17" s="61">
-        <v>3707498</v>
-      </c>
-      <c r="I17" s="54">
-        <v>1669</v>
-      </c>
-      <c r="J17" s="57">
-        <v>32</v>
-      </c>
-      <c r="K17" s="50">
-        <v>62</v>
-      </c>
-      <c r="L17" s="50">
-        <v>940.74047619047599</v>
-      </c>
-      <c r="M17" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="78" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="47">
-        <v>2020</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="50">
-        <v>129068.52941</v>
-      </c>
-      <c r="F18" s="50">
-        <v>42438.019710699999</v>
-      </c>
-      <c r="G18" s="47">
-        <v>52</v>
-      </c>
-      <c r="H18" s="61">
-        <v>112711950</v>
-      </c>
-      <c r="I18" s="54">
-        <v>4607</v>
-      </c>
-      <c r="J18" s="57">
-        <v>2342</v>
-      </c>
-      <c r="K18" s="50">
-        <v>802.33333333333303</v>
-      </c>
-      <c r="L18" s="50">
-        <v>63228.5557303807</v>
-      </c>
-      <c r="M18" s="79" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="76" t="s">
-        <v>406</v>
-      </c>
-      <c r="C19" s="48">
-        <v>2003</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="52">
-        <v>110578.830756</v>
-      </c>
-      <c r="F19" s="52">
-        <v>41407.6580789</v>
-      </c>
-      <c r="G19" s="48">
-        <v>18</v>
-      </c>
-      <c r="H19" s="60">
-        <v>32616213</v>
-      </c>
-      <c r="I19" s="55">
-        <v>132444</v>
-      </c>
-      <c r="J19" s="58">
-        <v>2820</v>
-      </c>
-      <c r="K19" s="52">
-        <v>626</v>
-      </c>
-      <c r="L19" s="52">
-        <v>74404</v>
-      </c>
-      <c r="M19" s="77" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="47">
-        <v>2011</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E20" s="50">
-        <v>65812.060750000004</v>
-      </c>
-      <c r="F20" s="50">
-        <v>39969.444967800002</v>
-      </c>
-      <c r="G20" s="47">
-        <v>13</v>
-      </c>
-      <c r="H20" s="61">
-        <v>1194159</v>
-      </c>
-      <c r="I20" s="54">
-        <v>740</v>
-      </c>
-      <c r="J20" s="57">
-        <v>0</v>
-      </c>
-      <c r="K20" s="50">
-        <v>8</v>
-      </c>
-      <c r="L20" s="50">
-        <v>854</v>
-      </c>
-      <c r="M20" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="78" t="s">
-        <v>408</v>
-      </c>
-      <c r="C21" s="47">
-        <v>2020</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="50">
-        <v>146990.04892</v>
-      </c>
-      <c r="F21" s="50">
-        <v>39132.276141900002</v>
-      </c>
-      <c r="G21" s="47">
-        <v>22</v>
-      </c>
-      <c r="H21" s="61">
-        <v>94646381</v>
-      </c>
-      <c r="I21" s="54">
-        <v>34344</v>
-      </c>
-      <c r="J21" s="57">
-        <v>1479</v>
-      </c>
-      <c r="K21" s="50">
-        <v>353.5</v>
-      </c>
-      <c r="L21" s="50">
-        <v>36600.938594738502</v>
-      </c>
-      <c r="M21" s="79" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="C22" s="49">
-        <v>2007</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="53">
-        <v>80123.781139999992</v>
-      </c>
-      <c r="F22" s="53">
-        <v>38638.561193399997</v>
-      </c>
-      <c r="G22" s="49">
-        <v>19</v>
-      </c>
-      <c r="H22" s="63">
-        <v>18000000</v>
-      </c>
-      <c r="I22" s="56">
-        <v>76871</v>
-      </c>
-      <c r="J22" s="59">
-        <v>1680</v>
-      </c>
-      <c r="K22" s="53">
-        <v>2</v>
-      </c>
-      <c r="L22" s="53">
-        <v>46819</v>
-      </c>
-      <c r="M22" s="81" t="s">
-        <v>413</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFABA0C-4B0F-344D-B826-4874A774611E}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="14">
-        <v>2017</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="15">
-        <v>315368.56231199997</v>
-      </c>
-      <c r="E2" s="19">
-        <v>214207.89008299899</v>
-      </c>
-      <c r="F2" s="14">
-        <v>16</v>
-      </c>
-      <c r="G2" s="16">
-        <v>3200000</v>
-      </c>
-      <c r="H2" s="17">
-        <v>1647</v>
-      </c>
-      <c r="I2" s="18">
-        <v>151</v>
-      </c>
-      <c r="J2" s="19">
-        <v>2</v>
-      </c>
-      <c r="K2" s="19">
-        <v>954.61666666666599</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="B3" s="22">
-        <v>2012</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="23">
-        <v>225664.24480799999</v>
-      </c>
-      <c r="E3" s="27">
-        <v>129911.42907899999</v>
-      </c>
-      <c r="F3" s="22">
-        <v>14</v>
-      </c>
-      <c r="G3" s="24">
-        <v>4360000</v>
-      </c>
-      <c r="H3" s="25">
-        <v>2</v>
-      </c>
-      <c r="I3" s="26">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <v>49</v>
-      </c>
-      <c r="K3" s="27">
-        <v>4237</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="23">
-        <v>218968.71493799999</v>
-      </c>
-      <c r="E4" s="27">
-        <v>102198.994356</v>
-      </c>
-      <c r="F4" s="22">
-        <v>33</v>
-      </c>
-      <c r="G4" s="24">
-        <v>11459351</v>
-      </c>
-      <c r="H4" s="25">
-        <v>4907</v>
-      </c>
-      <c r="I4" s="26">
-        <v>288</v>
-      </c>
-      <c r="J4" s="27">
-        <v>34</v>
-      </c>
-      <c r="K4" s="27">
-        <v>4326.9376984126802</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="22">
-        <v>2017</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="23">
-        <v>128753.279016</v>
-      </c>
-      <c r="E5" s="27">
-        <v>100911.042317</v>
-      </c>
-      <c r="F5" s="22">
-        <v>14</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="H5" s="25">
-        <v>97</v>
-      </c>
-      <c r="I5" s="26">
-        <v>11</v>
-      </c>
-      <c r="J5" s="27">
-        <v>3</v>
-      </c>
-      <c r="K5" s="27">
-        <v>235</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2016</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="D6" s="23">
-        <v>148819.22964000001</v>
-      </c>
-      <c r="E6" s="27">
-        <v>81420.034781399998</v>
-      </c>
-      <c r="F6" s="22">
-        <v>19</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1750000</v>
-      </c>
-      <c r="H6" s="25">
-        <v>1098</v>
-      </c>
-      <c r="I6" s="26">
-        <v>54</v>
-      </c>
-      <c r="J6" s="27">
-        <v>20</v>
-      </c>
-      <c r="K6" s="27">
-        <v>1182.74999999999</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="22">
-        <v>2007</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="23">
-        <v>263861.74697599997</v>
-      </c>
-      <c r="E7" s="27">
-        <v>70150.454433299994</v>
-      </c>
-      <c r="F7" s="22">
-        <v>30</v>
-      </c>
-      <c r="G7" s="24">
-        <v>13000000</v>
-      </c>
-      <c r="H7" s="25">
-        <v>21</v>
-      </c>
-      <c r="I7" s="26">
-        <v>3</v>
-      </c>
-      <c r="J7" s="27">
-        <v>56</v>
-      </c>
-      <c r="K7" s="27">
-        <v>10443</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="22">
-        <v>2006</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="23">
-        <v>367149.35006999999</v>
-      </c>
-      <c r="E8" s="46">
-        <v>60769.870410199997</v>
-      </c>
-      <c r="F8" s="22">
-        <v>23</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="H8" s="25">
-        <f>3386+1435</f>
-        <v>4821</v>
-      </c>
-      <c r="I8" s="26">
-        <v>89</v>
-      </c>
-      <c r="J8" s="27">
-        <v>6</v>
-      </c>
-      <c r="K8" s="27">
-        <v>702</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="22">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="23">
-        <v>176268.67633399999</v>
-      </c>
-      <c r="E9" s="27">
-        <v>59245.793829800001</v>
-      </c>
-      <c r="F9" s="22">
-        <v>20</v>
-      </c>
-      <c r="G9" s="24">
-        <v>8500000</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
-        <v>1</v>
-      </c>
-      <c r="J9" s="27">
-        <v>96.5</v>
-      </c>
-      <c r="K9" s="27">
-        <v>2332.1722222222202</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="B10" s="22">
-        <v>2007</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="23">
-        <v>146922.06167200001</v>
-      </c>
-      <c r="E10" s="27">
-        <v>58258.363932699998</v>
-      </c>
-      <c r="F10" s="22">
-        <v>16</v>
-      </c>
-      <c r="G10" s="24">
-        <v>5050000</v>
-      </c>
-      <c r="H10" s="25">
-        <v>112</v>
-      </c>
-      <c r="I10" s="26">
-        <v>2</v>
-      </c>
-      <c r="J10" s="27">
-        <v>25</v>
-      </c>
-      <c r="K10" s="27">
-        <v>4421</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="22">
-        <v>2008</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="23">
-        <v>88851.239415999997</v>
-      </c>
-      <c r="E11" s="27">
-        <v>57979.307657400001</v>
-      </c>
-      <c r="F11" s="22">
-        <v>5</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="H11" s="25">
-        <v>1</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>8</v>
-      </c>
-      <c r="K11" s="27">
-        <v>56</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="22">
-        <v>2014</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="23">
-        <v>160153.27044200001</v>
-      </c>
-      <c r="E12" s="27">
-        <v>50251.595418699901</v>
-      </c>
-      <c r="F12" s="22">
-        <v>14</v>
-      </c>
-      <c r="G12" s="24">
-        <v>11062411</v>
-      </c>
-      <c r="H12" s="25">
-        <v>42</v>
-      </c>
-      <c r="I12" s="26">
-        <v>4</v>
-      </c>
-      <c r="J12" s="27">
-        <v>96</v>
-      </c>
-      <c r="K12" s="27">
-        <v>5264.6658730158697</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="23">
-        <v>417898.18852799997</v>
-      </c>
-      <c r="E13" s="27">
-        <v>49629.085266099901</v>
-      </c>
-      <c r="F13" s="22">
-        <v>68</v>
-      </c>
-      <c r="G13" s="24">
-        <v>115511217.89</v>
-      </c>
-      <c r="H13" s="25">
-        <v>196</v>
-      </c>
-      <c r="I13" s="26">
-        <v>446</v>
-      </c>
-      <c r="J13" s="27">
-        <v>1153.25</v>
-      </c>
-      <c r="K13" s="27">
-        <v>63813.662481962499</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B14" s="22">
-        <v>2012</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="23">
-        <v>85337.755563999992</v>
-      </c>
-      <c r="E14" s="27">
-        <v>47461.032665899998</v>
-      </c>
-      <c r="F14" s="22">
-        <v>12</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1625000</v>
-      </c>
-      <c r="H14" s="25">
-        <v>57</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>18</v>
-      </c>
-      <c r="K14" s="27">
-        <v>1361</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="B15" s="22">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="23">
-        <v>115481.601646</v>
-      </c>
-      <c r="E15" s="27">
-        <v>46473.602768700002</v>
-      </c>
-      <c r="F15" s="22">
-        <v>9</v>
-      </c>
-      <c r="G15" s="24">
-        <v>6250000</v>
-      </c>
-      <c r="H15" s="25">
-        <v>662</v>
-      </c>
-      <c r="I15" s="26">
-        <v>1</v>
-      </c>
-      <c r="J15" s="27">
-        <v>69</v>
-      </c>
-      <c r="K15" s="27">
-        <v>1706.19166666666</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="22">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D16" s="23">
-        <v>115819.514456</v>
-      </c>
-      <c r="E16" s="27">
-        <v>44498.742974399996</v>
-      </c>
-      <c r="F16" s="22">
-        <v>26</v>
-      </c>
-      <c r="G16" s="24">
-        <v>3707498</v>
-      </c>
-      <c r="H16" s="25">
-        <v>1669</v>
-      </c>
-      <c r="I16" s="26">
-        <v>32</v>
-      </c>
-      <c r="J16" s="27">
-        <v>62</v>
-      </c>
-      <c r="K16" s="27">
-        <v>940.74047619047599</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="23">
-        <v>129068.52941</v>
-      </c>
-      <c r="E17" s="27">
-        <v>42438.019710699999</v>
-      </c>
-      <c r="F17" s="22">
-        <v>52</v>
-      </c>
-      <c r="G17" s="24">
-        <v>112711950</v>
-      </c>
-      <c r="H17" s="25">
-        <v>4607</v>
-      </c>
-      <c r="I17" s="26">
-        <v>2342</v>
-      </c>
-      <c r="J17" s="27">
-        <v>802.33333333333303</v>
-      </c>
-      <c r="K17" s="27">
-        <v>63228.5557303807</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="B18" s="31">
-        <v>2003</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="32">
-        <v>110578.830756</v>
-      </c>
-      <c r="E18" s="36">
-        <v>41407.6580789</v>
-      </c>
-      <c r="F18" s="31">
-        <v>18</v>
-      </c>
-      <c r="G18" s="33">
-        <v>32616213</v>
-      </c>
-      <c r="H18" s="34">
-        <v>132444</v>
-      </c>
-      <c r="I18" s="35">
-        <v>2820</v>
-      </c>
-      <c r="J18" s="36">
-        <v>626</v>
-      </c>
-      <c r="K18" s="36">
-        <v>74404</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B19" s="22">
-        <v>2011</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="23">
-        <v>65812.060750000004</v>
-      </c>
-      <c r="E19" s="27">
-        <v>39969.444967800002</v>
-      </c>
-      <c r="F19" s="22">
-        <v>13</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1194159</v>
-      </c>
-      <c r="H19" s="25">
-        <v>740</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0</v>
-      </c>
-      <c r="J19" s="27">
-        <v>8</v>
-      </c>
-      <c r="K19" s="27">
-        <v>854</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="B20" s="22">
-        <v>2020</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="23">
-        <v>146990.04892</v>
-      </c>
-      <c r="E20" s="27">
-        <v>39132.276141900002</v>
-      </c>
-      <c r="F20" s="22">
-        <v>22</v>
-      </c>
-      <c r="G20" s="24">
-        <v>94646381</v>
-      </c>
-      <c r="H20" s="25">
-        <v>34344</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1479</v>
-      </c>
-      <c r="J20" s="27">
-        <v>353.5</v>
-      </c>
-      <c r="K20" s="27">
-        <v>36600.938594738502</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="B21" s="39">
-        <v>2007</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="40">
-        <v>80123.781139999992</v>
-      </c>
-      <c r="E21" s="44">
-        <v>38638.561193399997</v>
-      </c>
-      <c r="F21" s="39">
-        <v>19</v>
-      </c>
-      <c r="G21" s="41">
-        <v>18000000</v>
-      </c>
-      <c r="H21" s="42">
-        <v>76871</v>
-      </c>
-      <c r="I21" s="43">
-        <v>1680</v>
-      </c>
-      <c r="J21" s="44">
-        <v>2</v>
-      </c>
-      <c r="K21" s="44">
-        <v>46819</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>136</v>
-      </c>
+    <row r="24" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
